--- a/biology/Médecine/Méropénem/Méropénem.xlsx
+++ b/biology/Médecine/Méropénem/Méropénem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9rop%C3%A9nem</t>
+          <t>Méropénem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le méropénem est un antibiotique de la classe des carbapénèmes découvert en 1987 par des chercheurs japonais[3].
+Le méropénem est un antibiotique de la classe des carbapénèmes découvert en 1987 par des chercheurs japonais.
 Il est indiqué dans :
 les infections compliquées intra-abdominales ;
 les infections compliquées des voies urinaires ;
 les infections pelviennes ;
 les méningites bactériennes ;
 les pneumonies.
-La molécule s'utilise pour traiter les infections et surinfections bronchiques dans la mucoviscidose lorsque les germes détectés par analyse sont résistants aux antibiotiques usuellement employés[4]. En 2008, le laboratoire AstraZeneca a obtenu, auprès des autorités françaises, une nouvelle AMM pour traiter Pseudomonas aeruginosa et Burkholderia cepacia dans cette situation.
+La molécule s'utilise pour traiter les infections et surinfections bronchiques dans la mucoviscidose lorsque les germes détectés par analyse sont résistants aux antibiotiques usuellement employés. En 2008, le laboratoire AstraZeneca a obtenu, auprès des autorités françaises, une nouvelle AMM pour traiter Pseudomonas aeruginosa et Burkholderia cepacia dans cette situation.
 </t>
         </is>
       </c>
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9rop%C3%A9nem</t>
+          <t>Méropénem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets secondaires peuvent inclure :
 Troubles gastro-intestinaux ;
